--- a/network/master_plan_distance.xlsx
+++ b/network/master_plan_distance.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohyon\PycharmProjects\EPL\network\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214AF9FB-ADFE-4352-BF92-B85D208DF1C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -94,12 +100,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -107,8 +113,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,15 +167,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +257,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +309,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +502,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +623,7 @@
         <v>70</v>
       </c>
       <c r="L2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>56</v>
@@ -609,7 +668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -644,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="L3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>88</v>
@@ -689,7 +748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -724,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -769,7 +828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -804,7 +863,7 @@
         <v>93</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>36</v>
@@ -849,7 +908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,7 +943,7 @@
         <v>72</v>
       </c>
       <c r="L6">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>25</v>
@@ -929,7 +988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -964,7 +1023,7 @@
         <v>61</v>
       </c>
       <c r="L7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>87</v>
@@ -1009,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,7 +1103,7 @@
         <v>64</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>14</v>
@@ -1089,7 +1148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1183,7 @@
         <v>44</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>89</v>
@@ -1169,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1263,7 @@
         <v>66</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>66</v>
@@ -1249,7 +1308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>44</v>
@@ -1329,87 +1388,87 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1503,7 @@
         <v>98</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1489,7 +1548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1524,7 +1583,7 @@
         <v>59</v>
       </c>
       <c r="L14">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>8</v>
@@ -1569,7 +1628,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1604,7 +1663,7 @@
         <v>81</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>44</v>
@@ -1649,7 +1708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>78</v>
@@ -1729,7 +1788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1764,7 +1823,7 @@
         <v>81</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>63</v>
@@ -1809,7 +1868,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1844,7 +1903,7 @@
         <v>19</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>8</v>
@@ -1889,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1924,7 +1983,7 @@
         <v>85</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>33</v>
@@ -1969,7 +2028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2004,7 +2063,7 @@
         <v>79</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>32</v>
@@ -2049,7 +2108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2143,7 @@
         <v>96</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>94</v>
@@ -2129,7 +2188,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2223,7 @@
         <v>73</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>47</v>
@@ -2209,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2244,7 +2303,7 @@
         <v>23</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>78</v>
@@ -2289,7 +2348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2324,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="L24">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>97</v>
@@ -2369,7 +2428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2404,7 +2463,7 @@
         <v>73</v>
       </c>
       <c r="L25">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>97</v>
@@ -2449,7 +2508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2484,7 +2543,7 @@
         <v>81</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>48</v>
@@ -2530,6 +2589,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>